--- a/src/Data/Source/menu.xlsx
+++ b/src/Data/Source/menu.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Text</t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>/Menu3.bg</t>
+  </si>
+  <si>
+    <t>Меню</t>
+  </si>
+  <si>
+    <t>/admin/menu</t>
+  </si>
+  <si>
+    <t>Контакти</t>
+  </si>
+  <si>
+    <t>/contact</t>
   </si>
 </sst>
 </file>
@@ -457,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,6 +632,36 @@
         <v>2</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
